--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.591284303492209</v>
+        <v>1.028415333333333</v>
       </c>
       <c r="H2">
-        <v>0.591284303492209</v>
+        <v>3.085246</v>
       </c>
       <c r="I2">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="J2">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N2">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q2">
-        <v>52.6993326913405</v>
+        <v>100.1880891077553</v>
       </c>
       <c r="R2">
-        <v>52.6993326913405</v>
+        <v>901.6928019697981</v>
       </c>
       <c r="S2">
-        <v>0.009426435739946299</v>
+        <v>0.01575565309554173</v>
       </c>
       <c r="T2">
-        <v>0.009426435739946299</v>
+        <v>0.01575565309554173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.591284303492209</v>
+        <v>1.028415333333333</v>
       </c>
       <c r="H3">
-        <v>0.591284303492209</v>
+        <v>3.085246</v>
       </c>
       <c r="I3">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="J3">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N3">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q3">
-        <v>20.5133231557561</v>
+        <v>35.90489792938267</v>
       </c>
       <c r="R3">
-        <v>20.5133231557561</v>
+        <v>323.144081364444</v>
       </c>
       <c r="S3">
-        <v>0.003669259413075286</v>
+        <v>0.005646430840673632</v>
       </c>
       <c r="T3">
-        <v>0.003669259413075286</v>
+        <v>0.005646430840673631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.591284303492209</v>
+        <v>1.028415333333333</v>
       </c>
       <c r="H4">
-        <v>0.591284303492209</v>
+        <v>3.085246</v>
       </c>
       <c r="I4">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="J4">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N4">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q4">
-        <v>28.08291375544577</v>
+        <v>51.86009849815934</v>
       </c>
       <c r="R4">
-        <v>28.08291375544577</v>
+        <v>466.740886483434</v>
       </c>
       <c r="S4">
-        <v>0.005023247323768529</v>
+        <v>0.008155557499043804</v>
       </c>
       <c r="T4">
-        <v>0.005023247323768529</v>
+        <v>0.008155557499043804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.591284303492209</v>
+        <v>1.028415333333333</v>
       </c>
       <c r="H5">
-        <v>0.591284303492209</v>
+        <v>3.085246</v>
       </c>
       <c r="I5">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="J5">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N5">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q5">
-        <v>37.66434057832608</v>
+        <v>65.69929852406601</v>
       </c>
       <c r="R5">
-        <v>37.66434057832608</v>
+        <v>591.293686716594</v>
       </c>
       <c r="S5">
-        <v>0.006737096430205509</v>
+        <v>0.01033192034486556</v>
       </c>
       <c r="T5">
-        <v>0.006737096430205509</v>
+        <v>0.01033192034486555</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.591284303492209</v>
+        <v>1.028415333333333</v>
       </c>
       <c r="H6">
-        <v>0.591284303492209</v>
+        <v>3.085246</v>
       </c>
       <c r="I6">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="J6">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N6">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q6">
-        <v>11.06324691040635</v>
+        <v>20.16654798937734</v>
       </c>
       <c r="R6">
-        <v>11.06324691040635</v>
+        <v>181.498931904396</v>
       </c>
       <c r="S6">
-        <v>0.001978905248893999</v>
+        <v>0.00317140627279045</v>
       </c>
       <c r="T6">
-        <v>0.001978905248893999</v>
+        <v>0.003171406272790449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.591284303492209</v>
+        <v>1.028415333333333</v>
       </c>
       <c r="H7">
-        <v>0.591284303492209</v>
+        <v>3.085246</v>
       </c>
       <c r="I7">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="J7">
-        <v>0.02849754304717978</v>
+        <v>0.04565156193945813</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N7">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q7">
-        <v>9.294907908092627</v>
+        <v>16.47323976817022</v>
       </c>
       <c r="R7">
-        <v>9.294907908092627</v>
+        <v>148.259157913532</v>
       </c>
       <c r="S7">
-        <v>0.001662598891290157</v>
+        <v>0.002590593886542959</v>
       </c>
       <c r="T7">
-        <v>0.001662598891290157</v>
+        <v>0.002590593886542959</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.92411149910876</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H8">
-        <v>4.92411149910876</v>
+        <v>14.776831</v>
       </c>
       <c r="I8">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="J8">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N8">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q8">
-        <v>438.8707573804336</v>
+        <v>479.8523232696004</v>
       </c>
       <c r="R8">
-        <v>438.8707573804336</v>
+        <v>4318.670909426403</v>
       </c>
       <c r="S8">
-        <v>0.07850169596678794</v>
+        <v>0.07546193175113004</v>
       </c>
       <c r="T8">
-        <v>0.07850169596678794</v>
+        <v>0.07546193175113003</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.92411149910876</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H9">
-        <v>4.92411149910876</v>
+        <v>14.776831</v>
       </c>
       <c r="I9">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="J9">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N9">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q9">
-        <v>170.8313409295898</v>
+        <v>171.9670356187927</v>
       </c>
       <c r="R9">
-        <v>170.8313409295898</v>
+        <v>1547.703320569134</v>
       </c>
       <c r="S9">
-        <v>0.03055694589290775</v>
+        <v>0.02704366338561729</v>
       </c>
       <c r="T9">
-        <v>0.03055694589290775</v>
+        <v>0.02704366338561728</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.92411149910876</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H10">
-        <v>4.92411149910876</v>
+        <v>14.776831</v>
       </c>
       <c r="I10">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="J10">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N10">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q10">
-        <v>233.8695577321243</v>
+        <v>248.3847029217943</v>
       </c>
       <c r="R10">
-        <v>233.8695577321243</v>
+        <v>2235.462326296149</v>
       </c>
       <c r="S10">
-        <v>0.04183271864946748</v>
+        <v>0.03906116234301996</v>
       </c>
       <c r="T10">
-        <v>0.04183271864946748</v>
+        <v>0.03906116234301996</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.92411149910876</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H11">
-        <v>4.92411149910876</v>
+        <v>14.776831</v>
       </c>
       <c r="I11">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="J11">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N11">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q11">
-        <v>313.6619921291854</v>
+        <v>314.667754567601</v>
       </c>
       <c r="R11">
-        <v>313.6619921291854</v>
+        <v>2832.009791108409</v>
       </c>
       <c r="S11">
-        <v>0.05610535203902405</v>
+        <v>0.04948488413615642</v>
       </c>
       <c r="T11">
-        <v>0.05610535203902405</v>
+        <v>0.04948488413615641</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.92411149910876</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H12">
-        <v>4.92411149910876</v>
+        <v>14.776831</v>
       </c>
       <c r="I12">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="J12">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N12">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q12">
-        <v>92.13277099910222</v>
+        <v>96.58797758506735</v>
       </c>
       <c r="R12">
-        <v>92.13277099910222</v>
+        <v>869.2917982656062</v>
       </c>
       <c r="S12">
-        <v>0.01647997424280352</v>
+        <v>0.01518949689112777</v>
       </c>
       <c r="T12">
-        <v>0.01647997424280352</v>
+        <v>0.01518949689112776</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.92411149910876</v>
+        <v>4.925610333333334</v>
       </c>
       <c r="H13">
-        <v>4.92411149910876</v>
+        <v>14.776831</v>
       </c>
       <c r="I13">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="J13">
-        <v>0.2373225174187527</v>
+        <v>0.2186488259495045</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N13">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O13">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P13">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q13">
-        <v>77.40635535744258</v>
+        <v>78.89882365190023</v>
       </c>
       <c r="R13">
-        <v>77.40635535744258</v>
+        <v>710.0894128671021</v>
       </c>
       <c r="S13">
-        <v>0.01384583062776198</v>
+        <v>0.01240768744245305</v>
       </c>
       <c r="T13">
-        <v>0.01384583062776198</v>
+        <v>0.01240768744245304</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.70286344176841</v>
+        <v>4.373401</v>
       </c>
       <c r="H14">
-        <v>3.70286344176841</v>
+        <v>13.120203</v>
       </c>
       <c r="I14">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="J14">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N14">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O14">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P14">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q14">
-        <v>330.024712774955</v>
+        <v>426.056161251271</v>
       </c>
       <c r="R14">
-        <v>330.024712774955</v>
+        <v>3834.505451261439</v>
       </c>
       <c r="S14">
-        <v>0.05903218482458197</v>
+        <v>0.06700190746899465</v>
       </c>
       <c r="T14">
-        <v>0.05903218482458197</v>
+        <v>0.06700190746899462</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.70286344176841</v>
+        <v>4.373401</v>
       </c>
       <c r="H15">
-        <v>3.70286344176841</v>
+        <v>13.120203</v>
       </c>
       <c r="I15">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="J15">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N15">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P15">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q15">
-        <v>128.4627951968482</v>
+        <v>152.687840622038</v>
       </c>
       <c r="R15">
-        <v>128.4627951968482</v>
+        <v>1374.190565598342</v>
       </c>
       <c r="S15">
-        <v>0.0229783988155879</v>
+        <v>0.02401180290164827</v>
       </c>
       <c r="T15">
-        <v>0.0229783988155879</v>
+        <v>0.02401180290164827</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.70286344176841</v>
+        <v>4.373401</v>
       </c>
       <c r="H16">
-        <v>3.70286344176841</v>
+        <v>13.120203</v>
       </c>
       <c r="I16">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="J16">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N16">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O16">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P16">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q16">
-        <v>175.86665850795</v>
+        <v>220.538336293393</v>
       </c>
       <c r="R16">
-        <v>175.86665850795</v>
+        <v>1984.845026640537</v>
       </c>
       <c r="S16">
-        <v>0.03145762328593351</v>
+        <v>0.03468202210314089</v>
       </c>
       <c r="T16">
-        <v>0.03145762328593351</v>
+        <v>0.03468202210314088</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.70286344176841</v>
+        <v>4.373401</v>
       </c>
       <c r="H17">
-        <v>3.70286344176841</v>
+        <v>13.120203</v>
       </c>
       <c r="I17">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="J17">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N17">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O17">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P17">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q17">
-        <v>235.8694607012103</v>
+        <v>279.390406338213</v>
       </c>
       <c r="R17">
-        <v>235.8694607012103</v>
+        <v>2514.513657043917</v>
       </c>
       <c r="S17">
-        <v>0.04219044532002387</v>
+        <v>0.04393714222608703</v>
       </c>
       <c r="T17">
-        <v>0.04219044532002387</v>
+        <v>0.04393714222608702</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.70286344176841</v>
+        <v>4.373401</v>
       </c>
       <c r="H18">
-        <v>3.70286344176841</v>
+        <v>13.120203</v>
       </c>
       <c r="I18">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="J18">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N18">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O18">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P18">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q18">
-        <v>69.28256388652935</v>
+        <v>85.75951591214201</v>
       </c>
       <c r="R18">
-        <v>69.28256388652935</v>
+        <v>771.8356432092781</v>
       </c>
       <c r="S18">
-        <v>0.01239271169144059</v>
+        <v>0.01348660498854357</v>
       </c>
       <c r="T18">
-        <v>0.01239271169144059</v>
+        <v>0.01348660498854356</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.70286344176841</v>
+        <v>4.373401</v>
       </c>
       <c r="H19">
-        <v>3.70286344176841</v>
+        <v>13.120203</v>
       </c>
       <c r="I19">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="J19">
-        <v>0.1784632362239157</v>
+        <v>0.1941361434105301</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N19">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O19">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P19">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q19">
-        <v>58.20850390278251</v>
+        <v>70.05349000568067</v>
       </c>
       <c r="R19">
-        <v>58.20850390278251</v>
+        <v>630.481410051126</v>
       </c>
       <c r="S19">
-        <v>0.01041187228634783</v>
+        <v>0.01101666372211571</v>
       </c>
       <c r="T19">
-        <v>0.01041187228634783</v>
+        <v>0.01101666372211571</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.59445770772289</v>
+        <v>5.725097333333333</v>
       </c>
       <c r="H20">
-        <v>5.59445770772289</v>
+        <v>17.175292</v>
       </c>
       <c r="I20">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="J20">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N20">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O20">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P20">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q20">
-        <v>498.6166320087465</v>
+        <v>557.7382436757773</v>
       </c>
       <c r="R20">
-        <v>498.6166320087465</v>
+        <v>5019.644193081996</v>
       </c>
       <c r="S20">
-        <v>0.08918856085005472</v>
+        <v>0.08771032927897258</v>
       </c>
       <c r="T20">
-        <v>0.08918856085005472</v>
+        <v>0.08771032927897257</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.59445770772289</v>
+        <v>5.725097333333333</v>
       </c>
       <c r="H21">
-        <v>5.59445770772289</v>
+        <v>17.175292</v>
       </c>
       <c r="I21">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="J21">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N21">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P21">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q21">
-        <v>194.0875449626109</v>
+        <v>199.8793957328987</v>
       </c>
       <c r="R21">
-        <v>194.0875449626109</v>
+        <v>1798.914561596088</v>
       </c>
       <c r="S21">
-        <v>0.03471682993083933</v>
+        <v>0.03143318180993512</v>
       </c>
       <c r="T21">
-        <v>0.03471682993083933</v>
+        <v>0.03143318180993512</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.59445770772289</v>
+        <v>5.725097333333333</v>
       </c>
       <c r="H22">
-        <v>5.59445770772289</v>
+        <v>17.175292</v>
       </c>
       <c r="I22">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="J22">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N22">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O22">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P22">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q22">
-        <v>265.7074987219594</v>
+        <v>288.7005881717853</v>
       </c>
       <c r="R22">
-        <v>265.7074987219594</v>
+        <v>2598.305293546068</v>
       </c>
       <c r="S22">
-        <v>0.04752763525478149</v>
+        <v>0.04540126831664867</v>
       </c>
       <c r="T22">
-        <v>0.04752763525478149</v>
+        <v>0.04540126831664867</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.59445770772289</v>
+        <v>5.725097333333333</v>
       </c>
       <c r="H23">
-        <v>5.59445770772289</v>
+        <v>17.175292</v>
       </c>
       <c r="I23">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="J23">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N23">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O23">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P23">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q23">
-        <v>356.3625132786783</v>
+        <v>365.742192468932</v>
       </c>
       <c r="R23">
-        <v>356.3625132786783</v>
+        <v>3291.679732220388</v>
       </c>
       <c r="S23">
-        <v>0.06374328022751614</v>
+        <v>0.057516888067858</v>
       </c>
       <c r="T23">
-        <v>0.06374328022751614</v>
+        <v>0.05751688806785799</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.59445770772289</v>
+        <v>5.725097333333333</v>
       </c>
       <c r="H24">
-        <v>5.59445770772289</v>
+        <v>17.175292</v>
       </c>
       <c r="I24">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="J24">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N24">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O24">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P24">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q24">
-        <v>104.675308620263</v>
+        <v>112.2653915926213</v>
       </c>
       <c r="R24">
-        <v>104.675308620263</v>
+        <v>1010.388524333592</v>
       </c>
       <c r="S24">
-        <v>0.01872348319943892</v>
+        <v>0.01765493862914258</v>
       </c>
       <c r="T24">
-        <v>0.01872348319943892</v>
+        <v>0.01765493862914258</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.59445770772289</v>
+        <v>5.725097333333333</v>
       </c>
       <c r="H25">
-        <v>5.59445770772289</v>
+        <v>17.175292</v>
       </c>
       <c r="I25">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="J25">
-        <v>0.269630528681133</v>
+        <v>0.2541382134735057</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N25">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O25">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P25">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q25">
-        <v>87.94410553752917</v>
+        <v>91.70507090985156</v>
       </c>
       <c r="R25">
-        <v>87.94410553752917</v>
+        <v>825.345638188664</v>
       </c>
       <c r="S25">
-        <v>0.01573073921850237</v>
+        <v>0.01442160737094877</v>
       </c>
       <c r="T25">
-        <v>0.01573073921850237</v>
+        <v>0.01442160737094877</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.61587591035703</v>
+        <v>1.796371666666667</v>
       </c>
       <c r="H26">
-        <v>1.61587591035703</v>
+        <v>5.389115</v>
       </c>
       <c r="I26">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595831</v>
       </c>
       <c r="J26">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595832</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N26">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O26">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P26">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q26">
-        <v>144.0179989302724</v>
+        <v>175.0022960347217</v>
       </c>
       <c r="R26">
-        <v>144.0179989302724</v>
+        <v>1575.020664312495</v>
       </c>
       <c r="S26">
-        <v>0.02576078942523201</v>
+        <v>0.0275209906866358</v>
       </c>
       <c r="T26">
-        <v>0.02576078942523201</v>
+        <v>0.0275209906866358</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.61587591035703</v>
+        <v>1.796371666666667</v>
       </c>
       <c r="H27">
-        <v>1.61587591035703</v>
+        <v>5.389115</v>
       </c>
       <c r="I27">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595831</v>
       </c>
       <c r="J27">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595832</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N27">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O27">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P27">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q27">
-        <v>56.05930097075897</v>
+        <v>62.71643298612334</v>
       </c>
       <c r="R27">
-        <v>56.05930097075897</v>
+        <v>564.4478968751101</v>
       </c>
       <c r="S27">
-        <v>0.01002744003082986</v>
+        <v>0.00986283270116447</v>
       </c>
       <c r="T27">
-        <v>0.01002744003082986</v>
+        <v>0.009862832701164472</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.61587591035703</v>
+        <v>1.796371666666667</v>
       </c>
       <c r="H28">
-        <v>1.61587591035703</v>
+        <v>5.389115</v>
       </c>
       <c r="I28">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595831</v>
       </c>
       <c r="J28">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595832</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N28">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O28">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P28">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q28">
-        <v>76.74565951107955</v>
+        <v>90.58598073473166</v>
       </c>
       <c r="R28">
-        <v>76.74565951107955</v>
+        <v>815.273826612585</v>
       </c>
       <c r="S28">
-        <v>0.01372765063152051</v>
+        <v>0.01424561842117596</v>
       </c>
       <c r="T28">
-        <v>0.01372765063152051</v>
+        <v>0.01424561842117596</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.61587591035703</v>
+        <v>1.796371666666667</v>
       </c>
       <c r="H29">
-        <v>1.61587591035703</v>
+        <v>5.389115</v>
       </c>
       <c r="I29">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595831</v>
       </c>
       <c r="J29">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595832</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N29">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O29">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P29">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q29">
-        <v>102.9300122809734</v>
+        <v>114.759430906165</v>
       </c>
       <c r="R29">
-        <v>102.9300122809734</v>
+        <v>1032.834878155485</v>
       </c>
       <c r="S29">
-        <v>0.01841129852936281</v>
+        <v>0.01804715309875457</v>
       </c>
       <c r="T29">
-        <v>0.01841129852936281</v>
+        <v>0.01804715309875457</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.61587591035703</v>
+        <v>1.796371666666667</v>
       </c>
       <c r="H30">
-        <v>1.61587591035703</v>
+        <v>5.389115</v>
       </c>
       <c r="I30">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595831</v>
       </c>
       <c r="J30">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595832</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N30">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O30">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P30">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q30">
-        <v>30.2339062059898</v>
+        <v>35.22566637077667</v>
       </c>
       <c r="R30">
-        <v>30.2339062059898</v>
+        <v>317.0309973369901</v>
       </c>
       <c r="S30">
-        <v>0.005407999674067163</v>
+        <v>0.005539614382706956</v>
       </c>
       <c r="T30">
-        <v>0.005407999674067163</v>
+        <v>0.005539614382706956</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.61587591035703</v>
+        <v>1.796371666666667</v>
       </c>
       <c r="H31">
-        <v>1.61587591035703</v>
+        <v>5.389115</v>
       </c>
       <c r="I31">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595831</v>
       </c>
       <c r="J31">
-        <v>0.07787876837306747</v>
+        <v>0.07974129687595832</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N31">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O31">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P31">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q31">
-        <v>25.40134701524651</v>
+        <v>28.77442626398111</v>
       </c>
       <c r="R31">
-        <v>25.40134701524651</v>
+        <v>258.96983637583</v>
       </c>
       <c r="S31">
-        <v>0.004543590082055121</v>
+        <v>0.004525087585520558</v>
       </c>
       <c r="T31">
-        <v>0.004543590082055121</v>
+        <v>0.004525087585520559</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.32001351787248</v>
+        <v>4.678599333333334</v>
       </c>
       <c r="H32">
-        <v>4.32001351787248</v>
+        <v>14.035798</v>
       </c>
       <c r="I32">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510432</v>
       </c>
       <c r="J32">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510431</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N32">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O32">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P32">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q32">
-        <v>385.0293814072977</v>
+        <v>455.7885435140194</v>
       </c>
       <c r="R32">
-        <v>385.0293814072977</v>
+        <v>4102.096891626174</v>
       </c>
       <c r="S32">
-        <v>0.06887098064571041</v>
+        <v>0.07167764392437373</v>
       </c>
       <c r="T32">
-        <v>0.06887098064571041</v>
+        <v>0.07167764392437372</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.32001351787248</v>
+        <v>4.678599333333334</v>
       </c>
       <c r="H33">
-        <v>4.32001351787248</v>
+        <v>14.035798</v>
       </c>
       <c r="I33">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510432</v>
       </c>
       <c r="J33">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510431</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N33">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O33">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P33">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q33">
-        <v>149.8734750879796</v>
+        <v>163.3431805915747</v>
       </c>
       <c r="R33">
-        <v>149.8734750879796</v>
+        <v>1470.088625324172</v>
       </c>
       <c r="S33">
-        <v>0.02680817023460008</v>
+        <v>0.02568746955693818</v>
       </c>
       <c r="T33">
-        <v>0.02680817023460008</v>
+        <v>0.02568746955693817</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.32001351787248</v>
+        <v>4.678599333333334</v>
       </c>
       <c r="H34">
-        <v>4.32001351787248</v>
+        <v>14.035798</v>
       </c>
       <c r="I34">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510432</v>
       </c>
       <c r="J34">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510431</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N34">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O34">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P34">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q34">
-        <v>205.1780612613054</v>
+        <v>235.9286315516713</v>
       </c>
       <c r="R34">
-        <v>205.1780612613054</v>
+        <v>2123.357683965042</v>
       </c>
       <c r="S34">
-        <v>0.03670061291011886</v>
+        <v>0.03710231133399541</v>
       </c>
       <c r="T34">
-        <v>0.03670061291011886</v>
+        <v>0.03710231133399541</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.32001351787248</v>
+        <v>4.678599333333334</v>
       </c>
       <c r="H35">
-        <v>4.32001351787248</v>
+        <v>14.035798</v>
       </c>
       <c r="I35">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510432</v>
       </c>
       <c r="J35">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510431</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N35">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O35">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P35">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q35">
-        <v>275.1814304542343</v>
+        <v>298.887700632458</v>
       </c>
       <c r="R35">
-        <v>275.1814304542343</v>
+        <v>2689.989305692122</v>
       </c>
       <c r="S35">
-        <v>0.04922225649793818</v>
+        <v>0.04700330116711059</v>
       </c>
       <c r="T35">
-        <v>0.04922225649793818</v>
+        <v>0.04700330116711057</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.32001351787248</v>
+        <v>4.678599333333334</v>
       </c>
       <c r="H36">
-        <v>4.32001351787248</v>
+        <v>14.035798</v>
       </c>
       <c r="I36">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510432</v>
       </c>
       <c r="J36">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510431</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N36">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O36">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P36">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q36">
-        <v>80.82977329559048</v>
+        <v>91.74425440830535</v>
       </c>
       <c r="R36">
-        <v>80.82977329559048</v>
+        <v>825.6982896747481</v>
       </c>
       <c r="S36">
-        <v>0.01445818428684794</v>
+        <v>0.01442776939693614</v>
       </c>
       <c r="T36">
-        <v>0.01445818428684794</v>
+        <v>0.01442776939693614</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.32001351787248</v>
+        <v>4.678599333333334</v>
       </c>
       <c r="H37">
-        <v>4.32001351787248</v>
+        <v>14.035798</v>
       </c>
       <c r="I37">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510432</v>
       </c>
       <c r="J37">
-        <v>0.2082074062559513</v>
+        <v>0.2076839583510431</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N37">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O37">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P37">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q37">
-        <v>67.91001819798699</v>
+        <v>74.94218152834623</v>
       </c>
       <c r="R37">
-        <v>67.91001819798699</v>
+        <v>674.479633755116</v>
       </c>
       <c r="S37">
-        <v>0.01214720168073583</v>
+        <v>0.0117854629716891</v>
       </c>
       <c r="T37">
-        <v>0.01214720168073583</v>
+        <v>0.01178546297168909</v>
       </c>
     </row>
   </sheetData>
